--- a/natmiOut/OldD7/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Angpt1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>21.8780228513562</v>
+        <v>0.110507</v>
       </c>
       <c r="H2">
-        <v>21.8780228513562</v>
+        <v>0.331521</v>
       </c>
       <c r="I2">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="J2">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>3099.45423252771</v>
+        <v>16.96603111845467</v>
       </c>
       <c r="R2">
-        <v>3099.45423252771</v>
+        <v>152.694280066092</v>
       </c>
       <c r="S2">
-        <v>0.2919985031163311</v>
+        <v>0.001461019350218656</v>
       </c>
       <c r="T2">
-        <v>0.2919985031163311</v>
+        <v>0.001461019350218656</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>21.8780228513562</v>
+        <v>0.110507</v>
       </c>
       <c r="H3">
-        <v>21.8780228513562</v>
+        <v>0.331521</v>
       </c>
       <c r="I3">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="J3">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>3689.030902193357</v>
+        <v>18.65354874258534</v>
       </c>
       <c r="R3">
-        <v>3689.030902193357</v>
+        <v>167.881938683268</v>
       </c>
       <c r="S3">
-        <v>0.3475423157037111</v>
+        <v>0.001606338894045738</v>
       </c>
       <c r="T3">
-        <v>0.3475423157037111</v>
+        <v>0.001606338894045738</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>21.8780228513562</v>
+        <v>0.110507</v>
       </c>
       <c r="H4">
-        <v>21.8780228513562</v>
+        <v>0.331521</v>
       </c>
       <c r="I4">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="J4">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>1347.54605569487</v>
+        <v>7.524457360596667</v>
       </c>
       <c r="R4">
-        <v>1347.54605569487</v>
+        <v>67.72011624537001</v>
       </c>
       <c r="S4">
-        <v>0.126951844300124</v>
+        <v>0.0006479640245248025</v>
       </c>
       <c r="T4">
-        <v>0.126951844300124</v>
+        <v>0.0006479640245248027</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>21.8780228513562</v>
+        <v>0.110507</v>
       </c>
       <c r="H5">
-        <v>21.8780228513562</v>
+        <v>0.331521</v>
       </c>
       <c r="I5">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="J5">
-        <v>0.9317573987569101</v>
+        <v>0.004605687348208628</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>1754.222980221265</v>
+        <v>10.339330305211</v>
       </c>
       <c r="R5">
-        <v>1754.222980221265</v>
+        <v>93.05397274689901</v>
       </c>
       <c r="S5">
-        <v>0.1652647356367438</v>
+        <v>0.0008903650794194313</v>
       </c>
       <c r="T5">
-        <v>0.1652647356367438</v>
+        <v>0.0008903650794194313</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.60236258002801</v>
+        <v>22.14783133333333</v>
       </c>
       <c r="H6">
-        <v>1.60236258002801</v>
+        <v>66.443494</v>
       </c>
       <c r="I6">
-        <v>0.0682426012430899</v>
+        <v>0.9230726249214253</v>
       </c>
       <c r="J6">
-        <v>0.0682426012430899</v>
+        <v>0.9230726249214253</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>227.0063211129689</v>
+        <v>3400.334780671076</v>
       </c>
       <c r="R6">
-        <v>227.0063211129689</v>
+        <v>30603.01302603969</v>
       </c>
       <c r="S6">
-        <v>0.02138618640252482</v>
+        <v>0.2928177413501321</v>
       </c>
       <c r="T6">
-        <v>0.02138618640252482</v>
+        <v>0.2928177413501321</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.60236258002801</v>
+        <v>22.14783133333333</v>
       </c>
       <c r="H7">
-        <v>1.60236258002801</v>
+        <v>66.443494</v>
       </c>
       <c r="I7">
-        <v>0.0682426012430899</v>
+        <v>0.9230726249214253</v>
       </c>
       <c r="J7">
-        <v>0.0682426012430899</v>
+        <v>0.9230726249214253</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>270.1873525959489</v>
+        <v>3738.547343778151</v>
       </c>
       <c r="R7">
-        <v>270.1873525959489</v>
+        <v>33646.92609400336</v>
       </c>
       <c r="S7">
-        <v>0.02545425633036061</v>
+        <v>0.3219427085116618</v>
       </c>
       <c r="T7">
-        <v>0.02545425633036061</v>
+        <v>0.3219427085116618</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.60236258002801</v>
+        <v>22.14783133333333</v>
       </c>
       <c r="H8">
-        <v>1.60236258002801</v>
+        <v>66.443494</v>
       </c>
       <c r="I8">
-        <v>0.0682426012430899</v>
+        <v>0.9230726249214253</v>
       </c>
       <c r="J8">
-        <v>0.0682426012430899</v>
+        <v>0.9230726249214253</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>98.69527009731367</v>
+        <v>1508.052996618798</v>
       </c>
       <c r="R8">
-        <v>98.69527009731367</v>
+        <v>13572.47696956918</v>
       </c>
       <c r="S8">
-        <v>0.009298047001511883</v>
+        <v>0.1298650576456079</v>
       </c>
       <c r="T8">
-        <v>0.009298047001511883</v>
+        <v>0.1298650576456079</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>22.14783133333333</v>
+      </c>
+      <c r="H9">
+        <v>66.443494</v>
+      </c>
+      <c r="I9">
+        <v>0.9230726249214253</v>
+      </c>
+      <c r="J9">
+        <v>0.9230726249214253</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>93.562673</v>
+      </c>
+      <c r="N9">
+        <v>280.688019</v>
+      </c>
+      <c r="O9">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="P9">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="Q9">
+        <v>2072.210300699821</v>
+      </c>
+      <c r="R9">
+        <v>18649.89270629839</v>
+      </c>
+      <c r="S9">
+        <v>0.1784471174140236</v>
+      </c>
+      <c r="T9">
+        <v>0.1784471174140236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.735257333333333</v>
+      </c>
+      <c r="H10">
+        <v>5.205772</v>
+      </c>
+      <c r="I10">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="J10">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>153.5290173333333</v>
+      </c>
+      <c r="N10">
+        <v>460.587052</v>
+      </c>
+      <c r="O10">
+        <v>0.3172206968818489</v>
+      </c>
+      <c r="P10">
+        <v>0.317220696881849</v>
+      </c>
+      <c r="Q10">
+        <v>266.4123532071271</v>
+      </c>
+      <c r="R10">
+        <v>2397.711178864144</v>
+      </c>
+      <c r="S10">
+        <v>0.02294193618149822</v>
+      </c>
+      <c r="T10">
+        <v>0.02294193618149822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.60236258002801</v>
-      </c>
-      <c r="H9">
-        <v>1.60236258002801</v>
-      </c>
-      <c r="I9">
-        <v>0.0682426012430899</v>
-      </c>
-      <c r="J9">
-        <v>0.0682426012430899</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>80.1819703791251</v>
-      </c>
-      <c r="N9">
-        <v>80.1819703791251</v>
-      </c>
-      <c r="O9">
-        <v>0.1773688471454364</v>
-      </c>
-      <c r="P9">
-        <v>0.1773688471454364</v>
-      </c>
-      <c r="Q9">
-        <v>128.4805889284244</v>
-      </c>
-      <c r="R9">
-        <v>128.4805889284244</v>
-      </c>
-      <c r="S9">
-        <v>0.01210411150869258</v>
-      </c>
-      <c r="T9">
-        <v>0.01210411150869258</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.735257333333333</v>
+      </c>
+      <c r="H11">
+        <v>5.205772</v>
+      </c>
+      <c r="I11">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="J11">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>168.7997026666667</v>
+      </c>
+      <c r="N11">
+        <v>506.3991080000001</v>
+      </c>
+      <c r="O11">
+        <v>0.3487728915577651</v>
+      </c>
+      <c r="P11">
+        <v>0.3487728915577651</v>
+      </c>
+      <c r="Q11">
+        <v>292.9109219168196</v>
+      </c>
+      <c r="R11">
+        <v>2636.198297251376</v>
+      </c>
+      <c r="S11">
+        <v>0.02522384415205755</v>
+      </c>
+      <c r="T11">
+        <v>0.02522384415205755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.735257333333333</v>
+      </c>
+      <c r="H12">
+        <v>5.205772</v>
+      </c>
+      <c r="I12">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="J12">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>68.09032333333333</v>
+      </c>
+      <c r="N12">
+        <v>204.27097</v>
+      </c>
+      <c r="O12">
+        <v>0.1406878008722904</v>
+      </c>
+      <c r="P12">
+        <v>0.1406878008722904</v>
+      </c>
+      <c r="Q12">
+        <v>118.1542328932044</v>
+      </c>
+      <c r="R12">
+        <v>1063.38809603884</v>
+      </c>
+      <c r="S12">
+        <v>0.01017477920215772</v>
+      </c>
+      <c r="T12">
+        <v>0.01017477920215772</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.735257333333333</v>
+      </c>
+      <c r="H13">
+        <v>5.205772</v>
+      </c>
+      <c r="I13">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="J13">
+        <v>0.07232168773036617</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>93.562673</v>
+      </c>
+      <c r="N13">
+        <v>280.688019</v>
+      </c>
+      <c r="O13">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="P13">
+        <v>0.1933186106880956</v>
+      </c>
+      <c r="Q13">
+        <v>162.3553144495187</v>
+      </c>
+      <c r="R13">
+        <v>1461.197830045668</v>
+      </c>
+      <c r="S13">
+        <v>0.01398112819465268</v>
+      </c>
+      <c r="T13">
+        <v>0.01398112819465268</v>
       </c>
     </row>
   </sheetData>
